--- a/characterize_larval_transciptome/plots/geoduck_tables.xlsx
+++ b/characterize_larval_transciptome/plots/geoduck_tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/characterize_larval_transciptome/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BED299A-9B20-9743-9082-612C09948EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB914B-5BD8-DE4E-A4D4-85994196B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="860" windowWidth="27640" windowHeight="16440" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="500" yWindow="860" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="single tissue" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="overlapping" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>ctenidia</t>
   </si>
@@ -110,6 +110,48 @@
   </si>
   <si>
     <t>distinct</t>
+  </si>
+  <si>
+    <t>Ctenidia and Juvenile</t>
+  </si>
+  <si>
+    <t>Heart and Juvenile</t>
+  </si>
+  <si>
+    <t>Gonad and Juvenile</t>
+  </si>
+  <si>
+    <t>Heart and Ctenidia</t>
+  </si>
+  <si>
+    <t>Ctenidia and Larvae</t>
+  </si>
+  <si>
+    <t>Heart and Larvae</t>
+  </si>
+  <si>
+    <t>Gonad and Larvae</t>
+  </si>
+  <si>
+    <t>Gonad and Heart</t>
+  </si>
+  <si>
+    <t>Gonad and Ctenidia</t>
+  </si>
+  <si>
+    <t>Heart alone</t>
+  </si>
+  <si>
+    <t>Gonad alone</t>
+  </si>
+  <si>
+    <t>Ctendia alone</t>
+  </si>
+  <si>
+    <t>Larvae alone</t>
+  </si>
+  <si>
+    <t>Juvenile alone</t>
   </si>
 </sst>
 </file>
@@ -161,10 +203,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -173,12 +233,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,25 +558,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -527,7 +590,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -541,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -555,7 +618,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -569,7 +632,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -583,7 +646,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
@@ -601,6 +664,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -797,38 +861,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -841,8 +908,11 @@
       <c r="G2" s="4">
         <v>665</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -855,8 +925,11 @@
       <c r="G3" s="4">
         <v>545</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -869,8 +942,11 @@
       <c r="G4" s="4">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -883,8 +959,11 @@
       <c r="G5" s="4">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -897,8 +976,11 @@
       <c r="G6" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -911,8 +993,11 @@
       <c r="G7" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -925,8 +1010,11 @@
       <c r="G8" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -939,8 +1027,11 @@
       <c r="G9" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -953,8 +1044,11 @@
       <c r="G10" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -964,8 +1058,11 @@
       <c r="G11">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -975,8 +1072,11 @@
       <c r="G12">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -986,8 +1086,11 @@
       <c r="G13">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1100,11 @@
       <c r="G14">
         <v>868</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>12</v>
       </c>
@@ -1007,6 +1113,9 @@
       </c>
       <c r="G15">
         <v>2180</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1014,5 +1123,6 @@
     <sortCondition descending="1" ref="G1:G11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/characterize_larval_transciptome/plots/geoduck_tables.xlsx
+++ b/characterize_larval_transciptome/plots/geoduck_tables.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/characterize_larval_transciptome/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB914B-5BD8-DE4E-A4D4-85994196B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF114B-9395-D449-AB49-6DBC54184852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="860" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="500" yWindow="860" windowWidth="27640" windowHeight="16440" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="single tissue" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="top 8 comb" sheetId="2" r:id="rId2"/>
     <sheet name="overlapping" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>ctenidia</t>
   </si>
@@ -64,9 +64,6 @@
     <t>tpm &gt; 0</t>
   </si>
   <si>
-    <t>totals</t>
-  </si>
-  <si>
     <t>Top 8 combination sets are:</t>
   </si>
   <si>
@@ -152,6 +149,30 @@
   </si>
   <si>
     <t>Juvenile alone</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/ctenidia_unique.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/gonad_unique.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/heart_unique.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/juvenile_unique.csv</t>
+  </si>
+  <si>
+    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/larvae_unique.csv</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ocattau/code-for-Pgenerosa/main/output/all_unique.csv</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -233,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +263,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,26 +579,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -588,8 +614,11 @@
       <c r="D2">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -602,8 +631,11 @@
       <c r="D3">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -616,8 +648,11 @@
       <c r="D4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -630,8 +665,11 @@
       <c r="D5">
         <v>2180</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -644,10 +682,13 @@
       <c r="D6">
         <v>868</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
@@ -657,9 +698,11 @@
         <f>SUM(C2:C6)</f>
         <v>91629</v>
       </c>
-      <c r="D7" s="3">
-        <f>SUM(D2:D6)</f>
-        <v>3878</v>
+      <c r="D7" s="8">
+        <v>11294</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -700,30 +743,30 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>11111</v>
@@ -732,7 +775,7 @@
         <v>11294</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -743,12 +786,12 @@
         <v>9310</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -757,21 +800,21 @@
         <v>2180</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>10111</v>
@@ -780,15 +823,15 @@
         <v>2147</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -797,18 +840,18 @@
         <v>1974</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>10011</v>
@@ -817,18 +860,18 @@
         <v>1007</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>111</v>
@@ -837,12 +880,12 @@
         <v>886</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -851,7 +894,7 @@
         <v>868</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -886,21 +929,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4">
         <v>101</v>
@@ -909,15 +952,15 @@
         <v>665</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>10001</v>
@@ -926,15 +969,15 @@
         <v>545</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4">
         <v>1001</v>
@@ -943,15 +986,15 @@
         <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4">
         <v>10100</v>
@@ -960,15 +1003,15 @@
         <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4">
         <v>110</v>
@@ -977,15 +1020,15 @@
         <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4">
         <v>10010</v>
@@ -994,15 +1037,15 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4">
         <v>1010</v>
@@ -1011,15 +1054,15 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4">
         <v>11000</v>
@@ -1028,15 +1071,15 @@
         <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4">
         <v>1100</v>
@@ -1045,12 +1088,12 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>10000</v>
@@ -1059,12 +1102,12 @@
         <v>371</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1073,12 +1116,12 @@
         <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -1087,12 +1130,12 @@
         <v>340</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1101,12 +1144,12 @@
         <v>868</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1115,7 +1158,7 @@
         <v>2180</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/characterize_larval_transciptome/plots/geoduck_tables.xlsx
+++ b/characterize_larval_transciptome/plots/geoduck_tables.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/characterize_larval_transciptome/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF114B-9395-D449-AB49-6DBC54184852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AA2ABE-26AA-AA4C-8132-CAC4B74B0AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="860" windowWidth="27640" windowHeight="16440" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="-32100" yWindow="-1140" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="single tissue" sheetId="1" r:id="rId1"/>
-    <sheet name="top 8 comb" sheetId="2" r:id="rId2"/>
-    <sheet name="overlapping" sheetId="3" r:id="rId3"/>
+    <sheet name="top 20 terms" sheetId="6" r:id="rId2"/>
+    <sheet name="top 5 terms conserved" sheetId="7" r:id="rId3"/>
+    <sheet name="overlapping" sheetId="3" r:id="rId4"/>
+    <sheet name="top 8 comb" sheetId="2" r:id="rId5"/>
+    <sheet name="blast hits" sheetId="4" r:id="rId6"/>
+    <sheet name="top terms by species not unique" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top 20 terms'!$A$1:$A$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="92">
   <si>
     <t>ctenidia</t>
   </si>
@@ -173,13 +180,154 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>Pgenerosa</t>
+  </si>
+  <si>
+    <t>Mercenaria</t>
+  </si>
+  <si>
+    <t>Philippinarum</t>
+  </si>
+  <si>
+    <t>anatomical structure development</t>
+  </si>
+  <si>
+    <t>signaling</t>
+  </si>
+  <si>
+    <t>cell differentiation</t>
+  </si>
+  <si>
+    <t>DNA-templated transcription</t>
+  </si>
+  <si>
+    <t>immune system process</t>
+  </si>
+  <si>
+    <t>regulation of DNA-templated transcription</t>
+  </si>
+  <si>
+    <t>lipid metabolic process</t>
+  </si>
+  <si>
+    <t>reproductive process</t>
+  </si>
+  <si>
+    <t>vesicle-mediated transport</t>
+  </si>
+  <si>
+    <t>programmed cell death</t>
+  </si>
+  <si>
+    <t>transmembrane transport</t>
+  </si>
+  <si>
+    <t>carbohydrate derivative metabolic process</t>
+  </si>
+  <si>
+    <t>cytoskeleton organization</t>
+  </si>
+  <si>
+    <t>cell motility</t>
+  </si>
+  <si>
+    <t>defense response to other organism</t>
+  </si>
+  <si>
+    <t>cell adhesion</t>
+  </si>
+  <si>
+    <t>nervous system process</t>
+  </si>
+  <si>
+    <t>cell junction organization</t>
+  </si>
+  <si>
+    <t>protein-containing complex assembly</t>
+  </si>
+  <si>
+    <t>protein catabolic process</t>
+  </si>
+  <si>
+    <t>transcriptome</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>mRNA metabolic process</t>
+  </si>
+  <si>
+    <t>circulatory system process</t>
+  </si>
+  <si>
+    <t>mitotic cell cycle</t>
+  </si>
+  <si>
+    <t>microtubule-based movement</t>
+  </si>
+  <si>
+    <t>cilium organization</t>
+  </si>
+  <si>
+    <t>establishment or maintenance of cell polarity</t>
+  </si>
+  <si>
+    <t>Manila_r</t>
+  </si>
+  <si>
+    <t>Mercenaria_r</t>
+  </si>
+  <si>
+    <t>Term_unique</t>
+  </si>
+  <si>
+    <t>DNA repair</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>term A</t>
+  </si>
+  <si>
+    <t>term c</t>
+  </si>
+  <si>
+    <t>term b</t>
+  </si>
+  <si>
+    <t>term d</t>
+  </si>
+  <si>
+    <t>uniprot</t>
+  </si>
+  <si>
+    <t>unique genes</t>
+  </si>
+  <si>
+    <t>goslims</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +357,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -254,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,7 +420,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +754,7 @@
       <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -712,6 +869,1800 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A101" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1DF968-6962-664C-91F4-7DC60B588F92}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4">
+        <v>665</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>545</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>110</v>
+      </c>
+      <c r="G6" s="4">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10010</v>
+      </c>
+      <c r="G7" s="4">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1010</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11">
+        <v>371</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>119</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>340</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>868</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2180</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition descending="1" ref="G1:G11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458E1E55-6598-3A4D-81BB-3A496303A529}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -902,270 +2853,1430 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
-  <dimension ref="A1:H15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="10">
+        <v>34947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10">
+        <v>7737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22A8816-EA9A-1545-B9C3-92E9C4A43359}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8104</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>274</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4724</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3">
+        <v>178</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3215</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>111</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1612</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>107</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1510</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>106</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1309</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7">
+        <v>61</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1156</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8">
+        <v>59</v>
+      </c>
+      <c r="K8" s="4">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4">
+        <v>980</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>54</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4">
+        <v>960</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>49</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4">
+        <v>922</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4">
+        <v>916</v>
+      </c>
+      <c r="F12" s="4">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>48</v>
+      </c>
+      <c r="K12" s="4">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4">
+        <v>862</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="K13" s="4">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4">
+        <v>825</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14">
+        <v>44</v>
+      </c>
+      <c r="K14" s="4">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4">
+        <v>797</v>
+      </c>
+      <c r="F15" s="4">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>36</v>
+      </c>
+      <c r="K15" s="4">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4">
+        <v>707</v>
+      </c>
+      <c r="F16" s="4">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4">
+        <v>682</v>
+      </c>
+      <c r="F17" s="4">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
+      <c r="K17" s="4">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>556</v>
+      </c>
+      <c r="F18" s="4">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="K18" s="4">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4">
+        <v>554</v>
+      </c>
+      <c r="F19" s="4">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <v>31</v>
+      </c>
+      <c r="K19" s="4">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4">
+        <v>520</v>
+      </c>
+      <c r="F20" s="4">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>29</v>
+      </c>
+      <c r="K20" s="4">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4">
+        <v>457</v>
+      </c>
+      <c r="F21" s="4">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>28</v>
+      </c>
+      <c r="K21" s="4">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>251</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23">
+        <v>140</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>105</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F25" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25">
+        <v>101</v>
+      </c>
+      <c r="K25" s="4">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26">
+        <v>73</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F27" s="4">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <v>59</v>
+      </c>
+      <c r="K27" s="4">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F28" s="4">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>49</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F29" s="4">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>45</v>
+      </c>
+      <c r="K29" s="4">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F30" s="4">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30">
+        <v>45</v>
+      </c>
+      <c r="K30" s="4">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F31" s="4">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31">
+        <v>39</v>
+      </c>
+      <c r="K31" s="4">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F32" s="4">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32">
+        <v>36</v>
+      </c>
+      <c r="K32" s="4">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F33" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>101</v>
-      </c>
-      <c r="G2" s="4">
-        <v>665</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>10001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>545</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="K33" s="4">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F34" s="4">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="K34" s="4">
+        <v>13</v>
+      </c>
+      <c r="L34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F35" s="4">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="K35" s="4">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F36" s="4">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
+      </c>
+      <c r="K36" s="4">
+        <v>15</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F37" s="4">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37">
+        <v>29</v>
+      </c>
+      <c r="K37" s="4">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F38" s="4">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38">
+        <v>28</v>
+      </c>
+      <c r="K38" s="4">
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F39" s="4">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39">
+        <v>27</v>
+      </c>
+      <c r="K39" s="4">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F40" s="4">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>155</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10100</v>
-      </c>
-      <c r="G5" s="4">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
-        <v>110</v>
-      </c>
-      <c r="G6" s="4">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10010</v>
-      </c>
-      <c r="G7" s="4">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1010</v>
-      </c>
-      <c r="G8" s="4">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>11000</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="K40" s="4">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F41" s="4">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>10000</v>
-      </c>
-      <c r="G11">
-        <v>371</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-      <c r="G12">
-        <v>119</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>340</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>868</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2180</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
+      <c r="G41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41">
+        <v>24</v>
+      </c>
+      <c r="K41" s="4">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N41">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-    <sortCondition descending="1" ref="G1:G11"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/characterize_larval_transciptome/plots/geoduck_tables.xlsx
+++ b/characterize_larval_transciptome/plots/geoduck_tables.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/characterize_larval_transciptome/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AA2ABE-26AA-AA4C-8132-CAC4B74B0AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF681FD-26B4-274C-863C-8F0E226FF8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="-1140" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="-31380" yWindow="-1720" windowWidth="27640" windowHeight="16440" activeTab="3" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="single tissue" sheetId="1" r:id="rId1"/>
-    <sheet name="top 20 terms" sheetId="6" r:id="rId2"/>
-    <sheet name="top 5 terms conserved" sheetId="7" r:id="rId3"/>
-    <sheet name="overlapping" sheetId="3" r:id="rId4"/>
-    <sheet name="top 8 comb" sheetId="2" r:id="rId5"/>
-    <sheet name="blast hits" sheetId="4" r:id="rId6"/>
-    <sheet name="top terms by species not unique" sheetId="5" r:id="rId7"/>
+    <sheet name="top 20 terms species" sheetId="6" r:id="rId2"/>
+    <sheet name="top 20 terms tissue" sheetId="8" r:id="rId3"/>
+    <sheet name="top 20 tissue unique" sheetId="10" r:id="rId4"/>
+    <sheet name="top 20 terms normal" sheetId="9" r:id="rId5"/>
+    <sheet name="overlapping" sheetId="3" r:id="rId6"/>
+    <sheet name="top 8 comb" sheetId="2" r:id="rId7"/>
+    <sheet name="blast hits" sheetId="4" r:id="rId8"/>
+    <sheet name="top terms by species not unique" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top 20 terms'!$A$1:$A$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top 20 terms species'!$A$1:$A$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="162">
   <si>
     <t>ctenidia</t>
   </si>
@@ -161,24 +164,6 @@
     <t>link</t>
   </si>
   <si>
-    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/ctenidia_unique.csv</t>
-  </si>
-  <si>
-    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/gonad_unique.csv</t>
-  </si>
-  <si>
-    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/heart_unique.csv</t>
-  </si>
-  <si>
-    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/juvenile_unique.csv</t>
-  </si>
-  <si>
-    <t>https://github.com/ocattau/code-for-Pgenerosa/blob/main/output/larvae_unique.csv</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/ocattau/code-for-Pgenerosa/main/output/all_unique.csv</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -302,18 +287,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>term A</t>
-  </si>
-  <si>
-    <t>term c</t>
-  </si>
-  <si>
-    <t>term b</t>
-  </si>
-  <si>
-    <t>term d</t>
-  </si>
-  <si>
     <t>uniprot</t>
   </si>
   <si>
@@ -321,13 +294,253 @@
   </si>
   <si>
     <t>goslims</t>
+  </si>
+  <si>
+    <t>discussion table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function differences </t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>GOterm</t>
+  </si>
+  <si>
+    <t>tissue_n</t>
+  </si>
+  <si>
+    <t>normalized</t>
+  </si>
+  <si>
+    <t>ribosome biogenesis</t>
+  </si>
+  <si>
+    <t>ctenidia_n</t>
+  </si>
+  <si>
+    <t>tRNA metabolic process</t>
+  </si>
+  <si>
+    <t>snRNA metabolic process</t>
+  </si>
+  <si>
+    <t>protein localization to plasma membrane</t>
+  </si>
+  <si>
+    <t>protein folding</t>
+  </si>
+  <si>
+    <t>telomere organization</t>
+  </si>
+  <si>
+    <t>respiratory system process</t>
+  </si>
+  <si>
+    <t>protein maturation</t>
+  </si>
+  <si>
+    <t>sulfur compound metabolic process</t>
+  </si>
+  <si>
+    <t>protein glycosylation</t>
+  </si>
+  <si>
+    <t>vitamin metabolic process</t>
+  </si>
+  <si>
+    <t>renal system process</t>
+  </si>
+  <si>
+    <t>wound healing</t>
+  </si>
+  <si>
+    <t>gonad_n</t>
+  </si>
+  <si>
+    <t>heart_n</t>
+  </si>
+  <si>
+    <t>juvenile_n</t>
+  </si>
+  <si>
+    <t>larvae_n</t>
+  </si>
+  <si>
+    <t>Ctenidia</t>
+  </si>
+  <si>
+    <t>Gonad</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Larvae</t>
+  </si>
+  <si>
+    <t>ctenidia unique</t>
+  </si>
+  <si>
+    <t>gonad unique</t>
+  </si>
+  <si>
+    <t>heart_unique</t>
+  </si>
+  <si>
+    <t>juvenile_unique</t>
+  </si>
+  <si>
+    <t>larvae_unique</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>total genes</t>
+  </si>
+  <si>
+    <t>n_goslims</t>
+  </si>
+  <si>
+    <t>% annotated</t>
+  </si>
+  <si>
+    <t>tissue(s)</t>
+  </si>
+  <si>
+    <t>Larvae + Juvenile</t>
+  </si>
+  <si>
+    <t>Top 20 Goslims</t>
+  </si>
+  <si>
+    <t>tissues</t>
+  </si>
+  <si>
+    <t>heart-gonad</t>
+  </si>
+  <si>
+    <t>heart-ctenidia</t>
+  </si>
+  <si>
+    <t>ctenidia-gonad</t>
+  </si>
+  <si>
+    <t>larvae-juvenile</t>
+  </si>
+  <si>
+    <t>ctenidia-juvenile</t>
+  </si>
+  <si>
+    <t>heart-juvenile</t>
+  </si>
+  <si>
+    <t>gonad-juvenile</t>
+  </si>
+  <si>
+    <t>ctenidia-larvae</t>
+  </si>
+  <si>
+    <t>heart-larvae</t>
+  </si>
+  <si>
+    <t>gonad-larvae</t>
+  </si>
+  <si>
+    <t>membrane organization</t>
+  </si>
+  <si>
+    <t>autophagy</t>
+  </si>
+  <si>
+    <t>carbohydrate metabolic process</t>
+  </si>
+  <si>
+    <t>cellular amino acid metabolic process</t>
+  </si>
+  <si>
+    <t>chromatin organization</t>
+  </si>
+  <si>
+    <t>digestive system process</t>
+  </si>
+  <si>
+    <t>endocrine process</t>
+  </si>
+  <si>
+    <t>inflammatory response</t>
+  </si>
+  <si>
+    <t>muscle system process</t>
+  </si>
+  <si>
+    <t>nucleobase-containing small molecule metabolic process</t>
+  </si>
+  <si>
+    <t>extracellular matrix organization</t>
+  </si>
+  <si>
+    <t>cellular modified amino acid metabolic process</t>
+  </si>
+  <si>
+    <t>intracellular protein transport</t>
+  </si>
+  <si>
+    <t>nucleocytoplasmic transport</t>
+  </si>
+  <si>
+    <t>generation of precursor metabolites and energy</t>
+  </si>
+  <si>
+    <t>cell wall organization or biogenesis</t>
+  </si>
+  <si>
+    <t>DNA recombination</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>mitotic nuclear division</t>
+  </si>
+  <si>
+    <t>nitrogen cycle metabolic process</t>
+  </si>
+  <si>
+    <t>chromosome segregation</t>
+  </si>
+  <si>
+    <t>detoxification</t>
+  </si>
+  <si>
+    <t>gene silencing by RNA</t>
+  </si>
+  <si>
+    <t>lysosome organization</t>
+  </si>
+  <si>
+    <t>meiotic nuclear division</t>
+  </si>
+  <si>
+    <t>cytokinesis</t>
+  </si>
+  <si>
+    <t>cytoplasmic translation</t>
+  </si>
+  <si>
+    <t>mitochondrion organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +584,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,10 +649,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,11 +664,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,15 +999,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
@@ -757,8 +1024,14 @@
       <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -771,11 +1044,19 @@
       <c r="D2">
         <v>340</v>
       </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="19">
+        <f>SUM(B2:C2)</f>
+        <v>34947</v>
+      </c>
+      <c r="G2" s="18">
+        <f>C2/F2</f>
+        <v>0.5001573811772112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -788,11 +1069,19 @@
       <c r="D3">
         <v>119</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F7" si="0">SUM(B3:C3)</f>
+        <v>34947</v>
+      </c>
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G7" si="1">C3/F3</f>
+        <v>0.39150713938249349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -805,11 +1094,19 @@
       <c r="D4">
         <v>371</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="0"/>
+        <v>34947</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="1"/>
+        <v>0.50367699659484366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -822,11 +1119,19 @@
       <c r="D5">
         <v>2180</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="0"/>
+        <v>34947</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="1"/>
+        <v>0.67007182304632729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -839,13 +1144,21 @@
       <c r="D6">
         <v>868</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>34947</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="1"/>
+        <v>0.55652845737831569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
@@ -858,13 +1171,32 @@
       <c r="D7" s="8">
         <v>11294</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
+      <c r="E7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>174735</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.52438835951583829</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8E679CEB-3FA1-214F-8662-1DB7F7D4329E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4282F596-5CE3-A147-B53A-ACFC0F0CBC15}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{06DB0BE7-7DD7-4447-802E-604F31833213}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{A5ECA048-9637-3347-A642-B69735BCE259}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{3210E477-3250-0A42-AF90-C60B4E8C5ADE}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{9C1B3C63-6FFD-2940-9A9B-9963DE6D8DA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -872,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,16 +1216,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -901,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1128</v>
@@ -915,10 +1247,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D3">
         <v>962</v>
@@ -929,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D4">
         <v>785</v>
@@ -943,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
       </c>
       <c r="D5">
         <v>422</v>
@@ -957,10 +1289,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D6">
         <v>413</v>
@@ -971,10 +1303,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D7">
         <v>382</v>
@@ -985,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>354</v>
@@ -999,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>329</v>
@@ -1013,10 +1345,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>318</v>
@@ -1027,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>305</v>
@@ -1041,10 +1373,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>294</v>
@@ -1055,10 +1387,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>278</v>
@@ -1069,10 +1401,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>232</v>
@@ -1083,10 +1415,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>212</v>
@@ -1097,10 +1429,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>210</v>
@@ -1111,10 +1443,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>206</v>
@@ -1125,10 +1457,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -1139,10 +1471,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>185</v>
@@ -1153,10 +1485,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>179</v>
@@ -1167,10 +1499,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>178</v>
@@ -1181,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D22">
         <v>58</v>
@@ -1195,10 +1527,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D23">
         <v>53</v>
@@ -1209,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D24">
         <v>37</v>
@@ -1223,10 +1555,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -1237,10 +1569,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -1251,10 +1583,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>20</v>
@@ -1265,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>18</v>
@@ -1279,10 +1611,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <v>18</v>
@@ -1293,10 +1625,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>17</v>
@@ -1307,10 +1639,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -1321,10 +1653,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -1335,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>15</v>
@@ -1349,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -1363,10 +1695,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -1377,10 +1709,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>13</v>
@@ -1391,10 +1723,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>13</v>
@@ -1405,10 +1737,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>12</v>
@@ -1419,10 +1751,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D39">
         <v>11</v>
@@ -1433,10 +1765,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D40">
         <v>11</v>
@@ -1447,10 +1779,10 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -1461,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D42">
         <v>67</v>
@@ -1475,10 +1807,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D43">
         <v>57</v>
@@ -1489,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D44">
         <v>41</v>
@@ -1503,10 +1835,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D45">
         <v>36</v>
@@ -1517,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -1531,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>22</v>
@@ -1545,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <v>20</v>
@@ -1559,10 +1891,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>19</v>
@@ -1573,10 +1905,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D50">
         <v>19</v>
@@ -1587,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>18</v>
@@ -1601,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D52">
         <v>18</v>
@@ -1615,10 +1947,10 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>18</v>
@@ -1629,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>17</v>
@@ -1643,10 +1975,10 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>16</v>
@@ -1657,10 +1989,10 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>15</v>
@@ -1671,10 +2003,10 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D57">
         <v>14</v>
@@ -1685,10 +2017,10 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D58">
         <v>13</v>
@@ -1699,10 +2031,10 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <v>12</v>
@@ -1713,10 +2045,10 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D60">
         <v>12</v>
@@ -1727,10 +2059,10 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -1741,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D62">
         <v>137</v>
@@ -1755,10 +2087,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D63">
         <v>105</v>
@@ -1769,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D64">
         <v>94</v>
@@ -1783,10 +2115,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D65">
         <v>52</v>
@@ -1797,10 +2129,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D66">
         <v>48</v>
@@ -1811,10 +2143,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D67">
         <v>45</v>
@@ -1825,10 +2157,10 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D68">
         <v>42</v>
@@ -1839,10 +2171,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D69">
         <v>38</v>
@@ -1853,10 +2185,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
         <v>48</v>
-      </c>
-      <c r="C70" t="s">
-        <v>54</v>
       </c>
       <c r="D70">
         <v>37</v>
@@ -1867,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>37</v>
@@ -1881,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D72">
         <v>33</v>
@@ -1895,10 +2227,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D73">
         <v>31</v>
@@ -1909,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D74">
         <v>27</v>
@@ -1923,10 +2255,10 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D75">
         <v>27</v>
@@ -1937,10 +2269,10 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D76">
         <v>26</v>
@@ -1951,10 +2283,10 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D77">
         <v>25</v>
@@ -1965,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D78">
         <v>24</v>
@@ -1979,10 +2311,10 @@
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <v>24</v>
@@ -1993,10 +2325,10 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D80">
         <v>23</v>
@@ -2007,10 +2339,10 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D81">
         <v>22</v>
@@ -2021,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D82">
         <v>456</v>
@@ -2035,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D83">
         <v>370</v>
@@ -2049,10 +2381,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D84">
         <v>300</v>
@@ -2063,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D85">
         <v>146</v>
@@ -2077,10 +2409,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D86">
         <v>144</v>
@@ -2091,10 +2423,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D87">
         <v>136</v>
@@ -2105,10 +2437,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D88">
         <v>135</v>
@@ -2119,10 +2451,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D89">
         <v>128</v>
@@ -2133,10 +2465,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D90">
         <v>126</v>
@@ -2147,10 +2479,10 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D91">
         <v>118</v>
@@ -2161,10 +2493,10 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D92">
         <v>116</v>
@@ -2175,10 +2507,10 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D93">
         <v>115</v>
@@ -2189,10 +2521,10 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D94">
         <v>103</v>
@@ -2203,10 +2535,10 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2217,10 +2549,10 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D96">
         <v>86</v>
@@ -2231,10 +2563,10 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D97">
         <v>83</v>
@@ -2245,10 +2577,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D98">
         <v>83</v>
@@ -2259,10 +2591,10 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D99">
         <v>75</v>
@@ -2273,10 +2605,10 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D100">
         <v>71</v>
@@ -2287,10 +2619,10 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D101">
         <v>71</v>
@@ -2303,366 +2635,5851 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1DF968-6962-664C-91F4-7DC60B588F92}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F754E3B4-B00D-1F48-9B8B-AB73EC5B3BA7}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C52">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C72">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
         <v>62</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C93">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
+      <c r="C99">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>101</v>
-      </c>
-      <c r="G2" s="4">
-        <v>665</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>10001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>545</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>155</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10100</v>
-      </c>
-      <c r="G5" s="4">
-        <v>124</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
-        <v>110</v>
-      </c>
-      <c r="G6" s="4">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10010</v>
-      </c>
-      <c r="G7" s="4">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1010</v>
-      </c>
-      <c r="G8" s="4">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>11000</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G10" s="4">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>10000</v>
-      </c>
-      <c r="G11">
-        <v>371</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-      <c r="G12">
-        <v>119</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>340</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>868</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2180</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-    <sortCondition descending="1" ref="G1:G11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="A1:A101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C976F7-D39C-A443-94B7-625710AF400A}">
+  <dimension ref="A1:E251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E236" sqref="E236"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" t="s">
+        <v>142</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>129</v>
+      </c>
+      <c r="B161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>129</v>
+      </c>
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" t="s">
+        <v>159</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>129</v>
+      </c>
+      <c r="B172" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173" t="s">
+        <v>71</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>129</v>
+      </c>
+      <c r="B174" t="s">
+        <v>70</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>129</v>
+      </c>
+      <c r="B175" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>129</v>
+      </c>
+      <c r="B177" t="s">
+        <v>100</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>129</v>
+      </c>
+      <c r="B178" t="s">
+        <v>51</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179" t="s">
+        <v>90</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>130</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>130</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>130</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>130</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>130</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>130</v>
+      </c>
+      <c r="B186" t="s">
+        <v>49</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>130</v>
+      </c>
+      <c r="B187" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>130</v>
+      </c>
+      <c r="B188" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>130</v>
+      </c>
+      <c r="B189" t="s">
+        <v>58</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>130</v>
+      </c>
+      <c r="B190" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>130</v>
+      </c>
+      <c r="B191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>130</v>
+      </c>
+      <c r="B192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>130</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>130</v>
+      </c>
+      <c r="B194" t="s">
+        <v>98</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>130</v>
+      </c>
+      <c r="B195" t="s">
+        <v>97</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>130</v>
+      </c>
+      <c r="B196" t="s">
+        <v>150</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>130</v>
+      </c>
+      <c r="B197" t="s">
+        <v>77</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>130</v>
+      </c>
+      <c r="B198" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>130</v>
+      </c>
+      <c r="B199" t="s">
+        <v>154</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>130</v>
+      </c>
+      <c r="B200" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>130</v>
+      </c>
+      <c r="B201" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>130</v>
+      </c>
+      <c r="B202" t="s">
+        <v>155</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>130</v>
+      </c>
+      <c r="B203" t="s">
+        <v>139</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>130</v>
+      </c>
+      <c r="B204" t="s">
+        <v>146</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>130</v>
+      </c>
+      <c r="B205" t="s">
+        <v>158</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>130</v>
+      </c>
+      <c r="B206" t="s">
+        <v>134</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>130</v>
+      </c>
+      <c r="B207" t="s">
+        <v>70</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>130</v>
+      </c>
+      <c r="B208" t="s">
+        <v>152</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>130</v>
+      </c>
+      <c r="B209" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>130</v>
+      </c>
+      <c r="B210" t="s">
+        <v>93</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>130</v>
+      </c>
+      <c r="B211" t="s">
+        <v>100</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>130</v>
+      </c>
+      <c r="B212" t="s">
+        <v>51</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>130</v>
+      </c>
+      <c r="B213" t="s">
+        <v>54</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>130</v>
+      </c>
+      <c r="B214" t="s">
+        <v>52</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>131</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>131</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>131</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>131</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>131</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>131</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>131</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>131</v>
+      </c>
+      <c r="B224" t="s">
+        <v>135</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>131</v>
+      </c>
+      <c r="B225" t="s">
+        <v>59</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>131</v>
+      </c>
+      <c r="B226" t="s">
+        <v>61</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>131</v>
+      </c>
+      <c r="B227" t="s">
+        <v>69</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>131</v>
+      </c>
+      <c r="B228" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>131</v>
+      </c>
+      <c r="B229" t="s">
+        <v>144</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>131</v>
+      </c>
+      <c r="B230" t="s">
+        <v>68</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>131</v>
+      </c>
+      <c r="B231" t="s">
+        <v>142</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>131</v>
+      </c>
+      <c r="B232" t="s">
+        <v>143</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>131</v>
+      </c>
+      <c r="B233" t="s">
+        <v>63</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>131</v>
+      </c>
+      <c r="B234" t="s">
+        <v>54</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>132</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>132</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>132</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>132</v>
+      </c>
+      <c r="B239" t="s">
+        <v>44</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>132</v>
+      </c>
+      <c r="B240" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>132</v>
+      </c>
+      <c r="B241" t="s">
+        <v>139</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>132</v>
+      </c>
+      <c r="B242" t="s">
+        <v>134</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>132</v>
+      </c>
+      <c r="B243" t="s">
+        <v>161</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>132</v>
+      </c>
+      <c r="B244" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>132</v>
+      </c>
+      <c r="B245" t="s">
+        <v>62</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>132</v>
+      </c>
+      <c r="B246" t="s">
+        <v>100</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>132</v>
+      </c>
+      <c r="B247" t="s">
+        <v>51</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>133</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>133</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>133</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>133</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20026194-68BA-8C44-8F05-04AF419EA4FD}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>0.949438202247191</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>0.93525179856115104</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>0.90566037735849103</v>
+      </c>
+      <c r="D9" s="13">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>0.90314136125654498</v>
+      </c>
+      <c r="D10" s="13">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>0.87837837837837796</v>
+      </c>
+      <c r="D12" s="13">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>0.86764705882352899</v>
+      </c>
+      <c r="D13" s="13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>0.85849056603773599</v>
+      </c>
+      <c r="D14" s="13">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>0.85034013605442205</v>
+      </c>
+      <c r="D15" s="13">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16">
+        <v>0.828125</v>
+      </c>
+      <c r="D16" s="13">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>0.82524271844660202</v>
+      </c>
+      <c r="D17" s="13">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="13">
+        <v>17</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="D19" s="13">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="D20" s="13">
+        <v>19</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="D21" s="13">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>0.95652173913043503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <v>0.94285714285714295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>0.92134831460674205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28">
+        <v>0.84892086330935301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30">
+        <v>0.82722513089005201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31">
+        <v>0.81132075471698095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>0.79521829521829501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35">
+        <v>0.78571428571428603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>0.73584905660377398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>0.73529411764705899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>0.72330097087378598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>0.68888888888888899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>0.61538461538461497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>0.52941176470588203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <v>0.96067415730337102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>0.94964028776978404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>0.90052356020942403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51">
+        <v>0.88095238095238104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <v>0.87110187110187098</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <v>0.86792452830188704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54">
+        <v>0.84466019417475702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <v>0.82704402515723296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57">
+        <v>0.80882352941176505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59">
+        <v>0.76470588235294101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60">
+        <v>0.71111111111111103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61">
+        <v>0.69230769230769196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68">
+        <v>0.98920863309352502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>0.98314606741572996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70">
+        <v>0.98167539267015702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71">
+        <v>0.97505197505197505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>0.97278911564625803</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74">
+        <v>0.970873786407767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75">
+        <v>0.97058823529411797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76">
+        <v>0.97058823529411797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78">
+        <v>0.96226415094339601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>0.96153846153846201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80">
+        <v>0.92452830188679203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>0.91111111111111098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>0.97191011235955105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89">
+        <v>0.96402877697841705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>0.942408376963351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93">
+        <v>0.92452830188679203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>0.92307692307692302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95">
+        <v>0.921768707482993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>0.91995841995841998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97">
+        <v>0.91176470588235303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98">
+        <v>0.89937106918238996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99">
+        <v>0.89805825242718496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>0.88235294117647101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>0.844444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="22">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1974</v>
+      </c>
+      <c r="J2" s="23">
+        <v>65</v>
+      </c>
+      <c r="K2" s="25">
+        <f>J2/I2</f>
+        <v>3.292806484295846E-2</v>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>101</v>
+      </c>
+      <c r="G3" s="4">
+        <v>665</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4">
+        <v>665</v>
+      </c>
+      <c r="J3" s="4">
+        <v>46</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" ref="K3:K11" si="0">J3/I3</f>
+        <v>6.9172932330827067E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>545</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4">
+        <v>545</v>
+      </c>
+      <c r="J4" s="4">
+        <v>49</v>
+      </c>
+      <c r="K4" s="25">
+        <f t="shared" si="0"/>
+        <v>8.990825688073395E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4">
+        <v>155</v>
+      </c>
+      <c r="J5" s="4">
+        <v>35</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>124</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4">
+        <v>124</v>
+      </c>
+      <c r="J6" s="4">
+        <v>18</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14516129032258066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4">
+        <v>79</v>
+      </c>
+      <c r="J7" s="4">
+        <v>20</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25316455696202533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10010</v>
+      </c>
+      <c r="G8" s="4">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4">
+        <v>13</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1010</v>
+      </c>
+      <c r="G9" s="4">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="0"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>11000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4">
+        <v>11</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10">
+        <v>1100</v>
+      </c>
+      <c r="G11" s="10">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="10">
+        <v>20</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>371</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>340</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>868</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2180</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <v>2180</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G12">
+    <sortCondition descending="1" ref="G1:G12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458E1E55-6598-3A4D-81BB-3A496303A529}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2853,12 +8670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2867,80 +8684,86 @@
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>5099</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>657</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>6521</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>761</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="10">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9">
         <v>34947</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="10">
+        <v>81</v>
+      </c>
+      <c r="C7" s="9">
         <v>7737</v>
       </c>
     </row>
@@ -2949,7 +8772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22A8816-EA9A-1545-B9C3-92E9C4A43359}">
   <dimension ref="A1:N41"/>
   <sheetViews>
@@ -2969,31 +8792,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3001,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4">
         <v>8104</v>
@@ -3013,10 +8836,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>274</v>
@@ -3025,10 +8848,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>3269</v>
@@ -3039,10 +8862,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>4724</v>
@@ -3051,10 +8874,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <v>178</v>
@@ -3063,10 +8886,10 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1102</v>
@@ -3077,10 +8900,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4">
         <v>3215</v>
@@ -3089,10 +8912,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I4">
         <v>111</v>
@@ -3101,10 +8924,10 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1076</v>
@@ -3115,10 +8938,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="4">
         <v>1612</v>
@@ -3127,10 +8950,10 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>107</v>
@@ -3139,10 +8962,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>438</v>
@@ -3153,10 +8976,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4">
         <v>1510</v>
@@ -3165,10 +8988,10 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>106</v>
@@ -3177,10 +9000,10 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>357</v>
@@ -3191,10 +9014,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
         <v>1309</v>
@@ -3203,10 +9026,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <v>61</v>
@@ -3215,10 +9038,10 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>296</v>
@@ -3229,10 +9052,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>1156</v>
@@ -3241,10 +9064,10 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>59</v>
@@ -3253,10 +9076,10 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>295</v>
@@ -3267,10 +9090,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4">
         <v>980</v>
@@ -3279,10 +9102,10 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>54</v>
@@ -3291,10 +9114,10 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>258</v>
@@ -3305,10 +9128,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4">
         <v>960</v>
@@ -3317,10 +9140,10 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I10">
         <v>49</v>
@@ -3329,10 +9152,10 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>216</v>
@@ -3343,10 +9166,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4">
         <v>922</v>
@@ -3355,10 +9178,10 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I11">
         <v>48</v>
@@ -3367,10 +9190,10 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>210</v>
@@ -3381,10 +9204,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4">
         <v>916</v>
@@ -3393,10 +9216,10 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>48</v>
@@ -3405,10 +9228,10 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
         <v>48</v>
-      </c>
-      <c r="M12" t="s">
-        <v>54</v>
       </c>
       <c r="N12">
         <v>209</v>
@@ -3419,10 +9242,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4">
         <v>862</v>
@@ -3431,10 +9254,10 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>45</v>
@@ -3443,10 +9266,10 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>206</v>
@@ -3457,10 +9280,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4">
         <v>825</v>
@@ -3469,10 +9292,10 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I14">
         <v>44</v>
@@ -3481,10 +9304,10 @@
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N14">
         <v>174</v>
@@ -3495,10 +9318,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4">
         <v>797</v>
@@ -3507,10 +9330,10 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>36</v>
@@ -3519,10 +9342,10 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>173</v>
@@ -3533,10 +9356,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4">
         <v>707</v>
@@ -3545,10 +9368,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I16">
         <v>35</v>
@@ -3557,10 +9380,10 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>161</v>
@@ -3571,10 +9394,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4">
         <v>682</v>
@@ -3583,10 +9406,10 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I17">
         <v>34</v>
@@ -3595,10 +9418,10 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>157</v>
@@ -3609,10 +9432,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4">
         <v>556</v>
@@ -3621,10 +9444,10 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <v>32</v>
@@ -3633,10 +9456,10 @@
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>144</v>
@@ -3647,10 +9470,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4">
         <v>554</v>
@@ -3659,10 +9482,10 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>31</v>
@@ -3671,10 +9494,10 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>144</v>
@@ -3685,10 +9508,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4">
         <v>520</v>
@@ -3697,10 +9520,10 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I20">
         <v>29</v>
@@ -3709,10 +9532,10 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>140</v>
@@ -3723,10 +9546,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4">
         <v>457</v>
@@ -3735,10 +9558,10 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I21">
         <v>28</v>
@@ -3747,10 +9570,10 @@
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>135</v>
@@ -3761,10 +9584,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I22">
         <v>251</v>
@@ -3773,10 +9596,10 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>2562</v>
@@ -3787,10 +9610,10 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I23">
         <v>140</v>
@@ -3799,10 +9622,10 @@
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1384</v>
@@ -3813,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I24">
         <v>105</v>
@@ -3825,10 +9648,10 @@
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>968</v>
@@ -3839,10 +9662,10 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I25">
         <v>101</v>
@@ -3851,10 +9674,10 @@
         <v>4</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>403</v>
@@ -3865,10 +9688,10 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I26">
         <v>73</v>
@@ -3877,10 +9700,10 @@
         <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>350</v>
@@ -3891,10 +9714,10 @@
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I27">
         <v>59</v>
@@ -3903,10 +9726,10 @@
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>349</v>
@@ -3917,10 +9740,10 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I28">
         <v>49</v>
@@ -3929,10 +9752,10 @@
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>343</v>
@@ -3943,10 +9766,10 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I29">
         <v>45</v>
@@ -3955,10 +9778,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>329</v>
@@ -3969,10 +9792,10 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <v>45</v>
@@ -3981,10 +9804,10 @@
         <v>9</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>323</v>
@@ -3995,10 +9818,10 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I31">
         <v>39</v>
@@ -4007,10 +9830,10 @@
         <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>313</v>
@@ -4021,10 +9844,10 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I32">
         <v>36</v>
@@ -4033,10 +9856,10 @@
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N32">
         <v>269</v>
@@ -4047,10 +9870,10 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I33">
         <v>33</v>
@@ -4059,10 +9882,10 @@
         <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>239</v>
@@ -4073,10 +9896,10 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -4085,10 +9908,10 @@
         <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>221</v>
@@ -4099,10 +9922,10 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I35">
         <v>32</v>
@@ -4111,10 +9934,10 @@
         <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N35">
         <v>205</v>
@@ -4125,10 +9948,10 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I36">
         <v>30</v>
@@ -4137,10 +9960,10 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>195</v>
@@ -4151,10 +9974,10 @@
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I37">
         <v>29</v>
@@ -4163,10 +9986,10 @@
         <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N37">
         <v>187</v>
@@ -4177,10 +10000,10 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I38">
         <v>28</v>
@@ -4189,10 +10012,10 @@
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N38">
         <v>172</v>
@@ -4203,10 +10026,10 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I39">
         <v>27</v>
@@ -4215,10 +10038,10 @@
         <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N39">
         <v>167</v>
@@ -4229,10 +10052,10 @@
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I40">
         <v>24</v>
@@ -4241,10 +10064,10 @@
         <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N40">
         <v>163</v>
@@ -4255,10 +10078,10 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I41">
         <v>24</v>
@@ -4267,10 +10090,10 @@
         <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N41">
         <v>158</v>
